--- a/Assets/11.Chat/CatText.xlsx
+++ b/Assets/11.Chat/CatText.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mymac/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mymac/Documents/GitHub/Kittys_Bungeoppang_Cafe/Assets/11.Chat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E233635-0382-2E4D-960B-491F73C18CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A19A32C-7A4A-1549-B702-1C162322141F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20540" yWindow="1080" windowWidth="20340" windowHeight="23860" xr2:uid="{A223F955-5311-FC49-A2C0-17385704B76F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="156">
   <si>
     <t>회색냥이</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -511,26 +511,13 @@
   </si>
   <si>
     <t>제가 또 말을 많이 했네요. 그러니까 부드러운 필링이 들어간 걸로 하나 주세요!</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ㄴ</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -551,13 +538,6 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="12"/>
@@ -595,7 +575,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -914,7 +894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0676CE5-91BB-0F40-AF3D-C43473BEB662}">
   <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
       <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
@@ -2563,9 +2543,7 @@
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="C151" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="C151" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/11.Chat/CatText.xlsx
+++ b/Assets/11.Chat/CatText.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mymac/Documents/GitHub/Kittys_Bungeoppang_Cafe/Assets/11.Chat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mymac/Downloads/Kittys_Bungeoppang_Cafe-26585e72fb9985e8f6719001e1cb053562570c57/Assets/11.Chat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A19A32C-7A4A-1549-B702-1C162322141F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEBD398-96C8-5546-8AC0-F87BAE8E8B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20540" yWindow="1080" windowWidth="20340" windowHeight="23860" xr2:uid="{A223F955-5311-FC49-A2C0-17385704B76F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="159">
   <si>
     <t>회색냥이</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -511,13 +511,137 @@
   </si>
   <si>
     <t>제가 또 말을 많이 했네요. 그러니까 부드러운 필링이 들어간 걸로 하나 주세요!</t>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감사합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>붕어빵은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아닌데</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>..</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -544,6 +668,13 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -892,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0676CE5-91BB-0F40-AF3D-C43473BEB662}">
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2228,10 +2359,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2242,7 +2373,7 @@
         <v>5</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2253,7 +2384,7 @@
         <v>5</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2264,7 +2395,7 @@
         <v>5</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2275,7 +2406,7 @@
         <v>5</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2286,7 +2417,7 @@
         <v>5</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2297,7 +2428,7 @@
         <v>5</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2308,7 +2439,7 @@
         <v>5</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2319,7 +2450,7 @@
         <v>5</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2330,7 +2461,7 @@
         <v>5</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2341,7 +2472,7 @@
         <v>5</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2352,7 +2483,7 @@
         <v>5</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2363,7 +2494,7 @@
         <v>5</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2374,7 +2505,7 @@
         <v>5</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2385,7 +2516,7 @@
         <v>5</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2396,7 +2527,7 @@
         <v>5</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2407,7 +2538,7 @@
         <v>5</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2418,7 +2549,7 @@
         <v>5</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2429,7 +2560,7 @@
         <v>5</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2440,7 +2571,7 @@
         <v>5</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2451,7 +2582,7 @@
         <v>5</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2462,7 +2593,7 @@
         <v>5</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2472,8 +2603,8 @@
       <c r="B143" t="s">
         <v>5</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>149</v>
+      <c r="C143" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2483,8 +2614,8 @@
       <c r="B144" t="s">
         <v>5</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>150</v>
+      <c r="C144" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2495,7 +2626,7 @@
         <v>5</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2506,7 +2637,7 @@
         <v>5</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2517,7 +2648,7 @@
         <v>5</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2528,7 +2659,7 @@
         <v>5</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2539,11 +2670,46 @@
         <v>5</v>
       </c>
       <c r="C149" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="C151" s="1"/>
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>158</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/11.Chat/CatText.xlsx
+++ b/Assets/11.Chat/CatText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mymac/Documents/GitHub/Kittys_Bungeoppang_Cafe/Assets/11.Chat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F960190A-424C-7945-81DF-CC7BC8CD1420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9997A7-7D6F-924D-AAA2-0BBA0206BDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20540" yWindow="1080" windowWidth="20340" windowHeight="23860" xr2:uid="{A223F955-5311-FC49-A2C0-17385704B76F}"/>
   </bookViews>
@@ -4190,119 +4190,6 @@
   </si>
   <si>
     <r>
-      <t>﻿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>저기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>뭐가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>떨어졌네요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>? (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>주의를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>돌림</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
@@ -15082,6 +14969,84 @@
         <family val="2"/>
       </rPr>
       <t>..</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>﻿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>저기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>뭐가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>떨어졌네요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">? </t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -15477,8 +15442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0676CE5-91BB-0F40-AF3D-C43473BEB662}">
   <dimension ref="A1:C153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -16187,7 +16152,7 @@
         <v>44</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>47</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -16198,7 +16163,7 @@
         <v>44</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -16209,7 +16174,7 @@
         <v>44</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -16220,7 +16185,7 @@
         <v>44</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -16231,7 +16196,7 @@
         <v>44</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -16242,7 +16207,7 @@
         <v>44</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -16253,7 +16218,7 @@
         <v>44</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -16264,7 +16229,7 @@
         <v>44</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -16275,7 +16240,7 @@
         <v>44</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -16286,7 +16251,7 @@
         <v>44</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -16297,7 +16262,7 @@
         <v>44</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -16308,7 +16273,7 @@
         <v>44</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -16319,7 +16284,7 @@
         <v>44</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -16330,7 +16295,7 @@
         <v>44</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -16341,7 +16306,7 @@
         <v>44</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -16352,7 +16317,7 @@
         <v>44</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -16363,7 +16328,7 @@
         <v>44</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -16374,7 +16339,7 @@
         <v>44</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -16385,7 +16350,7 @@
         <v>44</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -16396,7 +16361,7 @@
         <v>44</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -16407,7 +16372,7 @@
         <v>44</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -16418,7 +16383,7 @@
         <v>44</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -16429,7 +16394,7 @@
         <v>44</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -16440,7 +16405,7 @@
         <v>44</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -16451,7 +16416,7 @@
         <v>44</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -16462,7 +16427,7 @@
         <v>44</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -16473,7 +16438,7 @@
         <v>44</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -16484,7 +16449,7 @@
         <v>44</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -16492,10 +16457,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -16503,10 +16468,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -16514,10 +16479,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -16525,10 +16490,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -16536,10 +16501,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -16547,10 +16512,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -16558,10 +16523,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -16569,10 +16534,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -16580,10 +16545,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -16591,10 +16556,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -16602,10 +16567,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -16613,10 +16578,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -16624,10 +16589,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -16635,10 +16600,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -16646,10 +16611,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -16657,10 +16622,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -16668,10 +16633,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -16679,10 +16644,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -16690,10 +16655,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -16701,10 +16666,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -16712,10 +16677,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -16723,10 +16688,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -16734,10 +16699,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -16745,10 +16710,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -16756,10 +16721,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -16767,10 +16732,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -16778,10 +16743,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -16789,10 +16754,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -16800,10 +16765,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -16811,7 +16776,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>3</v>
@@ -16822,10 +16787,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -16833,10 +16798,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -16844,10 +16809,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -16855,10 +16820,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -16866,10 +16831,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -16877,10 +16842,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -16888,10 +16853,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -16899,10 +16864,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -16910,10 +16875,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -16921,10 +16886,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -16932,10 +16897,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -16943,10 +16908,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -16954,10 +16919,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -16965,10 +16930,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -16976,10 +16941,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -16987,10 +16952,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -16998,10 +16963,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -17009,10 +16974,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -17020,10 +16985,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -17031,10 +16996,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -17042,10 +17007,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -17053,10 +17018,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -17064,10 +17029,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -17075,10 +17040,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -17086,10 +17051,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -17097,10 +17062,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -17108,10 +17073,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -17119,10 +17084,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -17130,10 +17095,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -17141,7 +17106,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>3</v>
@@ -17153,7 +17118,7 @@
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -17162,7 +17127,7 @@
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/11.Chat/CatText.xlsx
+++ b/Assets/11.Chat/CatText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mymac/Documents/GitHub/Kittys_Bungeoppang_Cafe/Assets/11.Chat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D17FCE7-344F-F043-8209-DC500B36CE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2426B24E-02AE-504E-94A7-29852B417D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15340" yWindow="1100" windowWidth="20340" windowHeight="23860" xr2:uid="{A223F955-5311-FC49-A2C0-17385704B76F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="82">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5357,83 +5357,6 @@
   </si>
   <si>
     <r>
-      <t>﻿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>도전적인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>맛의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>붕어빵</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>있나요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
@@ -8053,104 +7976,6 @@
         <family val="2"/>
       </rPr>
       <t>!</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>원한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>붕어빵은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아닌데</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-      </rPr>
-      <t>..</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -8674,7 +8499,7 @@
   <dimension ref="A1:C153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -9658,7 +9483,7 @@
         <v>43</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -9669,7 +9494,7 @@
         <v>43</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -9680,7 +9505,7 @@
         <v>43</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -9688,10 +9513,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -9699,10 +9524,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -9710,10 +9535,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -9721,10 +9546,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -9732,10 +9557,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -9743,10 +9568,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -9754,10 +9579,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -9765,10 +9590,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -9776,10 +9601,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -9787,10 +9612,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -9798,10 +9623,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -9809,10 +9634,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -9820,10 +9645,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -9831,10 +9656,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -9842,10 +9667,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -9853,10 +9678,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -9864,10 +9689,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -9875,10 +9700,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -9886,10 +9711,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -9897,10 +9722,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -9908,10 +9733,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -9919,10 +9744,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -9930,10 +9755,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -9941,10 +9766,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -9952,10 +9777,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -9963,10 +9788,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -9974,10 +9799,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -9985,10 +9810,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -9996,10 +9821,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -10007,10 +9832,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -10018,10 +9843,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -10029,10 +9854,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -10040,10 +9865,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -10051,10 +9876,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -10062,10 +9887,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -10073,10 +9898,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -10084,10 +9909,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -10095,10 +9920,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -10106,10 +9931,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -10117,10 +9942,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -10128,10 +9953,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -10139,10 +9964,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -10150,10 +9975,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -10161,10 +9986,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -10172,10 +9997,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -10183,10 +10008,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -10194,10 +10019,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -10205,10 +10030,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -10216,10 +10041,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -10227,10 +10052,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -10238,10 +10063,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -10249,10 +10074,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -10260,10 +10085,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -10271,10 +10096,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -10282,10 +10107,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -10293,10 +10118,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -10304,10 +10129,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -10315,10 +10140,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -10326,10 +10151,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -10337,10 +10162,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -10348,10 +10173,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -10359,10 +10184,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/11.Chat/CatText.xlsx
+++ b/Assets/11.Chat/CatText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82108\Documents\GitPractice\Kittys_Bungeoppang_Cafe\Assets\11.Chat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E19716-AB4C-40A3-9961-9F5E07A31BD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A318D236-7B45-4135-B59E-BB512770FBB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15336" yWindow="1104" windowWidth="20340" windowHeight="23856" xr2:uid="{A223F955-5311-FC49-A2C0-17385704B76F}"/>
   </bookViews>
@@ -381,18 +381,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>내 기준 오른쪽에서 6-5+1번째 재료를 써달라냥.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 기준 왼쪽에서 7+2-4번째 재료를 써달라냥.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 기준 오른쪽에서 2x2-3번째 재료를 써달라냥.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -2323,6 +2311,18 @@
       </rPr>
       <t>맛있나냥?</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 기준 오른쪽에서 6-5+3번째 재료를 써달라냥.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 기준 왼쪽에서 7+1-4번째 재료를 써달라냥.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 기준 오른쪽에서 2x2-2번째 재료를 써달라냥.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2744,8 +2744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0676CE5-91BB-0F40-AF3D-C43473BEB662}">
   <dimension ref="A1:C153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C130" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -2992,7 +2992,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -3003,7 +3003,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -3014,7 +3014,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -3025,7 +3025,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -3036,7 +3036,7 @@
         <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -3069,7 +3069,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -3080,7 +3080,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
@@ -3091,7 +3091,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
@@ -3157,7 +3157,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
@@ -3168,7 +3168,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
@@ -3179,7 +3179,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
@@ -3190,7 +3190,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
@@ -3201,7 +3201,7 @@
         <v>4</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
@@ -3212,7 +3212,7 @@
         <v>4</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
@@ -3223,7 +3223,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
@@ -3234,7 +3234,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
@@ -3245,7 +3245,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
@@ -3256,7 +3256,7 @@
         <v>4</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
@@ -3267,7 +3267,7 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
@@ -3278,7 +3278,7 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
@@ -3289,7 +3289,7 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
@@ -3300,7 +3300,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
@@ -3311,7 +3311,7 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
@@ -3322,7 +3322,7 @@
         <v>4</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.45">
@@ -3333,7 +3333,7 @@
         <v>4</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
@@ -3344,7 +3344,7 @@
         <v>4</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
@@ -3355,7 +3355,7 @@
         <v>4</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
@@ -3366,7 +3366,7 @@
         <v>4</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.45">
@@ -3377,7 +3377,7 @@
         <v>4</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
@@ -3388,7 +3388,7 @@
         <v>4</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
@@ -3399,7 +3399,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.45">
@@ -3410,7 +3410,7 @@
         <v>4</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.45">
@@ -3421,7 +3421,7 @@
         <v>4</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.45">
@@ -3432,7 +3432,7 @@
         <v>5</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">
@@ -3443,7 +3443,7 @@
         <v>5</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.45">
@@ -3454,7 +3454,7 @@
         <v>5</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
@@ -3465,7 +3465,7 @@
         <v>5</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
@@ -3476,7 +3476,7 @@
         <v>5</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
@@ -3487,7 +3487,7 @@
         <v>5</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
@@ -3498,7 +3498,7 @@
         <v>5</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.45">
@@ -3509,7 +3509,7 @@
         <v>5</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
@@ -3520,7 +3520,7 @@
         <v>5</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
@@ -3531,7 +3531,7 @@
         <v>5</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.45">
@@ -3542,7 +3542,7 @@
         <v>5</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
@@ -3553,7 +3553,7 @@
         <v>5</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.45">
@@ -3564,7 +3564,7 @@
         <v>5</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
@@ -3575,7 +3575,7 @@
         <v>5</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
@@ -3586,7 +3586,7 @@
         <v>5</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
@@ -3597,7 +3597,7 @@
         <v>5</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
@@ -3608,7 +3608,7 @@
         <v>5</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
@@ -3619,7 +3619,7 @@
         <v>5</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
@@ -3630,7 +3630,7 @@
         <v>5</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.45">
@@ -3641,7 +3641,7 @@
         <v>5</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.45">
@@ -3652,7 +3652,7 @@
         <v>5</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
@@ -3663,7 +3663,7 @@
         <v>5</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
@@ -3674,7 +3674,7 @@
         <v>5</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.45">
@@ -3685,7 +3685,7 @@
         <v>5</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.45">
@@ -3696,7 +3696,7 @@
         <v>5</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.45">
@@ -3707,7 +3707,7 @@
         <v>5</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.45">
@@ -3718,7 +3718,7 @@
         <v>5</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.45">
@@ -3729,7 +3729,7 @@
         <v>5</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.45">
@@ -3740,7 +3740,7 @@
         <v>5</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.45">
@@ -3751,7 +3751,7 @@
         <v>5</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.45">
@@ -3762,7 +3762,7 @@
         <v>6</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.45">
@@ -3773,7 +3773,7 @@
         <v>6</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.45">
@@ -3784,7 +3784,7 @@
         <v>6</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.45">
@@ -3795,7 +3795,7 @@
         <v>6</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.45">
@@ -3806,7 +3806,7 @@
         <v>6</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
@@ -3817,7 +3817,7 @@
         <v>6</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
@@ -3828,7 +3828,7 @@
         <v>6</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
@@ -3839,7 +3839,7 @@
         <v>6</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
@@ -3850,7 +3850,7 @@
         <v>6</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.45">
@@ -3861,7 +3861,7 @@
         <v>6</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
@@ -3872,7 +3872,7 @@
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
@@ -3883,7 +3883,7 @@
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
@@ -3894,7 +3894,7 @@
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
@@ -3905,7 +3905,7 @@
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.45">
@@ -3916,7 +3916,7 @@
         <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
@@ -3927,7 +3927,7 @@
         <v>6</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.45">
@@ -3938,7 +3938,7 @@
         <v>6</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
@@ -3949,7 +3949,7 @@
         <v>6</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
@@ -3960,7 +3960,7 @@
         <v>6</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
@@ -3971,7 +3971,7 @@
         <v>6</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
@@ -3982,7 +3982,7 @@
         <v>6</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.45">
@@ -3993,7 +3993,7 @@
         <v>6</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.45">
@@ -4004,7 +4004,7 @@
         <v>6</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.45">
@@ -4015,7 +4015,7 @@
         <v>6</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.45">
@@ -4026,7 +4026,7 @@
         <v>6</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.45">
@@ -4037,7 +4037,7 @@
         <v>6</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.45">
@@ -4048,7 +4048,7 @@
         <v>6</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.45">
@@ -4059,7 +4059,7 @@
         <v>6</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.45">
@@ -4070,7 +4070,7 @@
         <v>6</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.45">
@@ -4081,7 +4081,7 @@
         <v>6</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.45">
@@ -4092,7 +4092,7 @@
         <v>7</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.45">
@@ -4103,7 +4103,7 @@
         <v>7</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.45">
@@ -4114,7 +4114,7 @@
         <v>7</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.45">
@@ -4125,7 +4125,7 @@
         <v>7</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.45">
@@ -4136,7 +4136,7 @@
         <v>7</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.45">
@@ -4147,7 +4147,7 @@
         <v>7</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.45">
@@ -4158,7 +4158,7 @@
         <v>7</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.45">
@@ -4169,7 +4169,7 @@
         <v>7</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.45">
@@ -4180,7 +4180,7 @@
         <v>7</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.45">
@@ -4191,7 +4191,7 @@
         <v>7</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.45">
@@ -4202,7 +4202,7 @@
         <v>7</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.45">
@@ -4213,7 +4213,7 @@
         <v>7</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.45">
@@ -4224,7 +4224,7 @@
         <v>7</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.45">
@@ -4235,7 +4235,7 @@
         <v>7</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.45">
@@ -4246,7 +4246,7 @@
         <v>7</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.45">
@@ -4257,7 +4257,7 @@
         <v>7</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.45">
@@ -4268,7 +4268,7 @@
         <v>7</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.45">
@@ -4279,7 +4279,7 @@
         <v>7</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.45">
@@ -4290,7 +4290,7 @@
         <v>7</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.45">
@@ -4301,7 +4301,7 @@
         <v>7</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.45">
@@ -4312,7 +4312,7 @@
         <v>7</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.45">
@@ -4323,7 +4323,7 @@
         <v>7</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.45">
@@ -4334,7 +4334,7 @@
         <v>7</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.45">
@@ -4345,7 +4345,7 @@
         <v>7</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.45">
@@ -4356,7 +4356,7 @@
         <v>7</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.45">
@@ -4367,7 +4367,7 @@
         <v>7</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.45">
@@ -4378,7 +4378,7 @@
         <v>7</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.45">
@@ -4389,7 +4389,7 @@
         <v>7</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.45">
@@ -4400,7 +4400,7 @@
         <v>7</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.45">
@@ -4411,7 +4411,7 @@
         <v>7</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.45">
@@ -4422,7 +4422,7 @@
         <v>8</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.45">
@@ -4433,7 +4433,7 @@
         <v>9</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
